--- a/data/Mesomicromacro Biomass Conversions Aug2024.xlsx
+++ b/data/Mesomicromacro Biomass Conversions Aug2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburdi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburdi\Documents\Data\Delta Smelt Cage Studies\Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE51B200-F40E-4454-932A-FF0C4250CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6DD1B-2969-4E02-978A-71F6E2C09AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro and Meso-zooplankton" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
   <si>
     <t>Taxname</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>Burdi et al 2021. Mysid and Amphipod Length-Weight Relationships. IEP Newsletter</t>
+  </si>
+  <si>
+    <t>Chironomidae</t>
+  </si>
+  <si>
+    <t>Stoffels et al 2003</t>
+  </si>
+  <si>
+    <t>Chironomidae larvae</t>
+  </si>
+  <si>
+    <t>Johnston and Cunjak 1999, Canada Specimens</t>
+  </si>
+  <si>
+    <t>Benke et al 1999, SE US Specimens</t>
+  </si>
+  <si>
+    <t>Methot et al 2012, Canadian Specimens</t>
   </si>
 </sst>
 </file>
@@ -507,7 +525,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -552,6 +570,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1633,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E689D54-14E1-4511-9AF6-F8307BF390D6}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +2891,140 @@
         <v>97</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3">
+        <v>91</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K33" s="24">
+        <v>2.77</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="24">
+        <v>508</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="H34" s="24">
+        <v>16</v>
+      </c>
+      <c r="I34" s="24">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="J34" s="24">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="K34" s="24">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="24">
+        <v>102</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="24">
+        <v>15.83</v>
+      </c>
+      <c r="I35" s="24">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="J35" s="24">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="K35" s="24">
+        <v>1.99</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="24">
+        <v>38</v>
+      </c>
+      <c r="G36" s="24">
+        <v>2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>6</v>
+      </c>
+      <c r="I36" s="24">
+        <v>2.15E-3</v>
+      </c>
+      <c r="J36" s="24">
+        <v>2.15E-3</v>
+      </c>
+      <c r="K36" s="24">
+        <v>2.71</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
     <sortCondition ref="E2:E24"/>
